--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1735.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1735.xlsx
@@ -354,7 +354,7 @@
         <v>1.49537101777109</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.171743657377483</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1735.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1735.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6487039702839024</v>
+        <v>1.027592182159424</v>
       </c>
       <c r="B1">
-        <v>1.49537101777109</v>
+        <v>1.367025971412659</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.171743657377483</v>
+        <v>1.707218766212463</v>
       </c>
       <c r="E1">
-        <v>1.476391075284299</v>
+        <v>1.025221943855286</v>
       </c>
     </row>
   </sheetData>
